--- a/1-1-Student-Resources/1-Student-Resources/02-Stu_GradeBook/Unsolved/GradeBook_Unsolved.xlsx
+++ b/1-1-Student-Resources/1-Student-Resources/02-Stu_GradeBook/Unsolved/GradeBook_Unsolved.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://spgl-my.sharepoint.com/personal/elizabeth_thomas_spglobal_com/Documents/Desktop/ET/Class/Rice University - Data Viz/Module 1 - Excel/1-1-Student-Resources/1-Student-Resources/02-Stu_GradeBook/Unsolved/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://spgl-my.sharepoint.com/personal/elizabeth_thomas_spglobal_com/Documents/Desktop/ET/Class/Rice University - Data Viz/Git/Bootcamp/1-1-Student-Resources/1-Student-Resources/02-Stu_GradeBook/Unsolved/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="11_DA6A435CE3A2EBBF1129A01CE17EDB4591E0C75E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37D54F86-0D05-46B2-B798-417020A1E6C4}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="11_DA6A435CE3A2EBBF1129A01CE17EDB4591E0C75E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F57546E-ED17-4C85-B3D1-9E87822EFB69}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,17 +43,48 @@
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Student Name</t>
   </si>
@@ -149,6 +180,9 @@
   </si>
   <si>
     <t>Pass/Fail</t>
+  </si>
+  <si>
+    <t>TEST -- ET</t>
   </si>
 </sst>
 </file>
@@ -202,12 +236,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -525,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,7 +575,7 @@
     <col min="6" max="10" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -563,8 +600,11 @@
       <c r="H1" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -580,9 +620,24 @@
       <c r="E2" s="2">
         <v>56</v>
       </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F2" s="2">
+        <f>ROUND(AVERAGE(B2:E2),0)</f>
+        <v>79</v>
+      </c>
+      <c r="G2" t="str">
+        <f>IF(F2&gt;=60, "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="H2" t="str" cm="1">
+        <f t="array" ref="H2">_xlfn.IFS(F2&gt;=90,"A",F2&gt;=80,"B",F2&gt;=70,"C",F2&gt;=60,"D",F2&lt;60,"F" )</f>
+        <v>C</v>
+      </c>
+      <c r="I2" t="str" cm="1">
+        <f t="array" ref="I2">_xlfn.IFS(F2&lt;60,"F",F2&gt;60,"D",F2&gt;70,"C",F2&gt;80,"B",F2&gt;90,"A" )</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -598,9 +653,24 @@
       <c r="E3" s="2">
         <v>95</v>
       </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F25" si="0">ROUND(AVERAGE(B3:E3),0)</f>
+        <v>74</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G25" si="1">IF(F3&gt;=60, "Pass", "Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="H3" t="str" cm="1">
+        <f t="array" ref="H3">_xlfn.IFS(F3&gt;=90,"A",F3&gt;=80,"B",F3&gt;=70,"C",F3&gt;=60,"D",F3&lt;60,"F" )</f>
+        <v>C</v>
+      </c>
+      <c r="I3" t="str" cm="1">
+        <f t="array" ref="I3">_xlfn.IFS(F3&lt;60,"F",F3&gt;60,"D",F3&gt;70,"C",F3&gt;80,"B",F3&gt;90,"A" )</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -616,9 +686,24 @@
       <c r="E4" s="2">
         <v>87</v>
       </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+      <c r="H4" t="str" cm="1">
+        <f t="array" ref="H4">_xlfn.IFS(F4&gt;=90,"A",F4&gt;=80,"B",F4&gt;=70,"C",F4&gt;=60,"D",F4&lt;60,"F" )</f>
+        <v>A</v>
+      </c>
+      <c r="I4" t="str" cm="1">
+        <f t="array" ref="I4">_xlfn.IFS(F4&lt;60,"F",F4&gt;60,"D",F4&gt;70,"C",F4&gt;80,"B",F4&gt;90,"A" )</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -634,9 +719,24 @@
       <c r="E5" s="2">
         <v>63</v>
       </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v>Fail</v>
+      </c>
+      <c r="H5" t="str" cm="1">
+        <f t="array" ref="H5">_xlfn.IFS(F5&gt;=90,"A",F5&gt;=80,"B",F5&gt;=70,"C",F5&gt;=60,"D",F5&lt;60,"F" )</f>
+        <v>F</v>
+      </c>
+      <c r="I5" t="str" cm="1">
+        <f t="array" ref="I5">_xlfn.IFS(F5&lt;60,"F",F5&gt;60,"D",F5&gt;70,"C",F5&gt;80,"B",F5&gt;90,"A" )</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -652,9 +752,24 @@
       <c r="E6" s="2">
         <v>85</v>
       </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+      <c r="H6" t="str" cm="1">
+        <f t="array" ref="H6">_xlfn.IFS(F6&gt;=90,"A",F6&gt;=80,"B",F6&gt;=70,"C",F6&gt;=60,"D",F6&lt;60,"F" )</f>
+        <v>B</v>
+      </c>
+      <c r="I6" t="str" cm="1">
+        <f t="array" ref="I6">_xlfn.IFS(F6&lt;60,"F",F6&gt;60,"D",F6&gt;70,"C",F6&gt;80,"B",F6&gt;90,"A" )</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -670,9 +785,24 @@
       <c r="E7" s="2">
         <v>55</v>
       </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+      <c r="H7" t="str" cm="1">
+        <f t="array" ref="H7">_xlfn.IFS(F7&gt;=90,"A",F7&gt;=80,"B",F7&gt;=70,"C",F7&gt;=60,"D",F7&lt;60,"F" )</f>
+        <v>C</v>
+      </c>
+      <c r="I7" t="str" cm="1">
+        <f t="array" ref="I7">_xlfn.IFS(F7&lt;60,"F",F7&gt;60,"D",F7&gt;70,"C",F7&gt;80,"B",F7&gt;90,"A" )</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -688,9 +818,24 @@
       <c r="E8" s="2">
         <v>83</v>
       </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+      <c r="H8" t="str" cm="1">
+        <f t="array" ref="H8">_xlfn.IFS(F8&gt;=90,"A",F8&gt;=80,"B",F8&gt;=70,"C",F8&gt;=60,"D",F8&lt;60,"F" )</f>
+        <v>B</v>
+      </c>
+      <c r="I8" t="str" cm="1">
+        <f t="array" ref="I8">_xlfn.IFS(F8&lt;60,"F",F8&gt;60,"D",F8&gt;70,"C",F8&gt;80,"B",F8&gt;90,"A" )</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -706,9 +851,24 @@
       <c r="E9" s="2">
         <v>43</v>
       </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v>Fail</v>
+      </c>
+      <c r="H9" t="str" cm="1">
+        <f t="array" ref="H9">_xlfn.IFS(F9&gt;=90,"A",F9&gt;=80,"B",F9&gt;=70,"C",F9&gt;=60,"D",F9&lt;60,"F" )</f>
+        <v>F</v>
+      </c>
+      <c r="I9" t="str" cm="1">
+        <f t="array" ref="I9">_xlfn.IFS(F9&lt;60,"F",F9&gt;60,"D",F9&gt;70,"C",F9&gt;80,"B",F9&gt;90,"A" )</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -724,9 +884,24 @@
       <c r="E10" s="2">
         <v>95</v>
       </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+      <c r="H10" t="str" cm="1">
+        <f t="array" ref="H10">_xlfn.IFS(F10&gt;=90,"A",F10&gt;=80,"B",F10&gt;=70,"C",F10&gt;=60,"D",F10&lt;60,"F" )</f>
+        <v>A</v>
+      </c>
+      <c r="I10" t="str" cm="1">
+        <f t="array" ref="I10">_xlfn.IFS(F10&lt;60,"F",F10&gt;60,"D",F10&gt;70,"C",F10&gt;80,"B",F10&gt;90,"A" )</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -742,9 +917,24 @@
       <c r="E11" s="2">
         <v>47</v>
       </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+      <c r="H11" t="str" cm="1">
+        <f t="array" ref="H11">_xlfn.IFS(F11&gt;=90,"A",F11&gt;=80,"B",F11&gt;=70,"C",F11&gt;=60,"D",F11&lt;60,"F" )</f>
+        <v>D</v>
+      </c>
+      <c r="I11" t="e" cm="1">
+        <f t="array" ref="I11">_xlfn.IFS(F11&lt;60,"F",F11&gt;60,"D",F11&gt;70,"C",F11&gt;80,"B",F11&gt;90,"A" )</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -760,9 +950,24 @@
       <c r="E12" s="2">
         <v>55</v>
       </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="2">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v>Fail</v>
+      </c>
+      <c r="H12" t="str" cm="1">
+        <f t="array" ref="H12">_xlfn.IFS(F12&gt;=90,"A",F12&gt;=80,"B",F12&gt;=70,"C",F12&gt;=60,"D",F12&lt;60,"F" )</f>
+        <v>F</v>
+      </c>
+      <c r="I12" t="str" cm="1">
+        <f t="array" ref="I12">_xlfn.IFS(F12&lt;60,"F",F12&gt;60,"D",F12&gt;70,"C",F12&gt;80,"B",F12&gt;90,"A" )</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -778,9 +983,24 @@
       <c r="E13" s="2">
         <v>46</v>
       </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="2">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+      <c r="H13" t="str" cm="1">
+        <f t="array" ref="H13">_xlfn.IFS(F13&gt;=90,"A",F13&gt;=80,"B",F13&gt;=70,"C",F13&gt;=60,"D",F13&lt;60,"F" )</f>
+        <v>D</v>
+      </c>
+      <c r="I13" t="e" cm="1">
+        <f t="array" ref="I13">_xlfn.IFS(F13&lt;60,"F",F13&gt;60,"D",F13&gt;70,"C",F13&gt;80,"B",F13&gt;90,"A" )</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -796,9 +1016,24 @@
       <c r="E14" s="2">
         <v>52</v>
       </c>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="2">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>Fail</v>
+      </c>
+      <c r="H14" t="str" cm="1">
+        <f t="array" ref="H14">_xlfn.IFS(F14&gt;=90,"A",F14&gt;=80,"B",F14&gt;=70,"C",F14&gt;=60,"D",F14&lt;60,"F" )</f>
+        <v>F</v>
+      </c>
+      <c r="I14" t="str" cm="1">
+        <f t="array" ref="I14">_xlfn.IFS(F14&lt;60,"F",F14&gt;60,"D",F14&gt;70,"C",F14&gt;80,"B",F14&gt;90,"A" )</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -814,9 +1049,24 @@
       <c r="E15" s="2">
         <v>57</v>
       </c>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="2">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+      <c r="H15" t="str" cm="1">
+        <f t="array" ref="H15">_xlfn.IFS(F15&gt;=90,"A",F15&gt;=80,"B",F15&gt;=70,"C",F15&gt;=60,"D",F15&lt;60,"F" )</f>
+        <v>D</v>
+      </c>
+      <c r="I15" t="str" cm="1">
+        <f t="array" ref="I15">_xlfn.IFS(F15&lt;60,"F",F15&gt;60,"D",F15&gt;70,"C",F15&gt;80,"B",F15&gt;90,"A" )</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -832,9 +1082,24 @@
       <c r="E16" s="2">
         <v>73</v>
       </c>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16" s="2">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+      <c r="H16" t="str" cm="1">
+        <f t="array" ref="H16">_xlfn.IFS(F16&gt;=90,"A",F16&gt;=80,"B",F16&gt;=70,"C",F16&gt;=60,"D",F16&lt;60,"F" )</f>
+        <v>C</v>
+      </c>
+      <c r="I16" t="str" cm="1">
+        <f t="array" ref="I16">_xlfn.IFS(F16&lt;60,"F",F16&gt;60,"D",F16&gt;70,"C",F16&gt;80,"B",F16&gt;90,"A" )</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -850,9 +1115,24 @@
       <c r="E17" s="2">
         <v>53</v>
       </c>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="2">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+      <c r="H17" t="str" cm="1">
+        <f t="array" ref="H17">_xlfn.IFS(F17&gt;=90,"A",F17&gt;=80,"B",F17&gt;=70,"C",F17&gt;=60,"D",F17&lt;60,"F" )</f>
+        <v>C</v>
+      </c>
+      <c r="I17" t="str" cm="1">
+        <f t="array" ref="I17">_xlfn.IFS(F17&lt;60,"F",F17&gt;60,"D",F17&gt;70,"C",F17&gt;80,"B",F17&gt;90,"A" )</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -868,9 +1148,24 @@
       <c r="E18" s="2">
         <v>97</v>
       </c>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="2">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+      <c r="H18" t="str" cm="1">
+        <f t="array" ref="H18">_xlfn.IFS(F18&gt;=90,"A",F18&gt;=80,"B",F18&gt;=70,"C",F18&gt;=60,"D",F18&lt;60,"F" )</f>
+        <v>A</v>
+      </c>
+      <c r="I18" t="str" cm="1">
+        <f t="array" ref="I18">_xlfn.IFS(F18&lt;60,"F",F18&gt;60,"D",F18&gt;70,"C",F18&gt;80,"B",F18&gt;90,"A" )</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -886,9 +1181,24 @@
       <c r="E19" s="2">
         <v>89</v>
       </c>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="2">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+      <c r="H19" t="str" cm="1">
+        <f t="array" ref="H19">_xlfn.IFS(F19&gt;=90,"A",F19&gt;=80,"B",F19&gt;=70,"C",F19&gt;=60,"D",F19&lt;60,"F" )</f>
+        <v>B</v>
+      </c>
+      <c r="I19" t="str" cm="1">
+        <f t="array" ref="I19">_xlfn.IFS(F19&lt;60,"F",F19&gt;60,"D",F19&gt;70,"C",F19&gt;80,"B",F19&gt;90,"A" )</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -904,9 +1214,24 @@
       <c r="E20" s="2">
         <v>82</v>
       </c>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="2">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+      <c r="H20" t="str" cm="1">
+        <f t="array" ref="H20">_xlfn.IFS(F20&gt;=90,"A",F20&gt;=80,"B",F20&gt;=70,"C",F20&gt;=60,"D",F20&lt;60,"F" )</f>
+        <v>B</v>
+      </c>
+      <c r="I20" t="str" cm="1">
+        <f t="array" ref="I20">_xlfn.IFS(F20&lt;60,"F",F20&gt;60,"D",F20&gt;70,"C",F20&gt;80,"B",F20&gt;90,"A" )</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -922,9 +1247,24 @@
       <c r="E21" s="2">
         <v>87</v>
       </c>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="2">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+      <c r="H21" t="str" cm="1">
+        <f t="array" ref="H21">_xlfn.IFS(F21&gt;=90,"A",F21&gt;=80,"B",F21&gt;=70,"C",F21&gt;=60,"D",F21&lt;60,"F" )</f>
+        <v>C</v>
+      </c>
+      <c r="I21" t="str" cm="1">
+        <f t="array" ref="I21">_xlfn.IFS(F21&lt;60,"F",F21&gt;60,"D",F21&gt;70,"C",F21&gt;80,"B",F21&gt;90,"A" )</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -940,9 +1280,24 @@
       <c r="E22" s="2">
         <v>100</v>
       </c>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="2">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+      <c r="H22" t="str" cm="1">
+        <f t="array" ref="H22">_xlfn.IFS(F22&gt;=90,"A",F22&gt;=80,"B",F22&gt;=70,"C",F22&gt;=60,"D",F22&lt;60,"F" )</f>
+        <v>A</v>
+      </c>
+      <c r="I22" t="str" cm="1">
+        <f t="array" ref="I22">_xlfn.IFS(F22&lt;60,"F",F22&gt;60,"D",F22&gt;70,"C",F22&gt;80,"B",F22&gt;90,"A" )</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -958,9 +1313,24 @@
       <c r="E23" s="2">
         <v>48</v>
       </c>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="2">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v>Fail</v>
+      </c>
+      <c r="H23" t="str" cm="1">
+        <f t="array" ref="H23">_xlfn.IFS(F23&gt;=90,"A",F23&gt;=80,"B",F23&gt;=70,"C",F23&gt;=60,"D",F23&lt;60,"F" )</f>
+        <v>F</v>
+      </c>
+      <c r="I23" t="str" cm="1">
+        <f t="array" ref="I23">_xlfn.IFS(F23&lt;60,"F",F23&gt;60,"D",F23&gt;70,"C",F23&gt;80,"B",F23&gt;90,"A" )</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -976,9 +1346,24 @@
       <c r="E24" s="2">
         <v>55</v>
       </c>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="2">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="1"/>
+        <v>Fail</v>
+      </c>
+      <c r="H24" t="str" cm="1">
+        <f t="array" ref="H24">_xlfn.IFS(F24&gt;=90,"A",F24&gt;=80,"B",F24&gt;=70,"C",F24&gt;=60,"D",F24&lt;60,"F" )</f>
+        <v>F</v>
+      </c>
+      <c r="I24" t="str" cm="1">
+        <f t="array" ref="I24">_xlfn.IFS(F24&lt;60,"F",F24&gt;60,"D",F24&gt;70,"C",F24&gt;80,"B",F24&gt;90,"A" )</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -994,7 +1379,22 @@
       <c r="E25" s="2">
         <v>53</v>
       </c>
-      <c r="F25" s="2"/>
+      <c r="F25" s="2">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+      <c r="H25" t="str" cm="1">
+        <f t="array" ref="H25">_xlfn.IFS(F25&gt;=90,"A",F25&gt;=80,"B",F25&gt;=70,"C",F25&gt;=60,"D",F25&lt;60,"F" )</f>
+        <v>D</v>
+      </c>
+      <c r="I25" t="str" cm="1">
+        <f t="array" ref="I25">_xlfn.IFS(F25&lt;60,"F",F25&gt;60,"D",F25&gt;70,"C",F25&gt;80,"B",F25&gt;90,"A" )</f>
+        <v>D</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
